--- a/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
+++ b/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CPY2"/>
+  <dimension ref="A1:CPZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12699,15 +12699,20 @@
       </c>
       <c r="CPW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="CPX1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CPX1" s="1" t="inlineStr">
+      <c r="CPY1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CPY1" s="1" t="inlineStr">
+      <c r="CPZ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20106,19 +20111,22 @@
         <v>1981.47</v>
       </c>
       <c r="CPV2" t="n">
-        <v>1983.18</v>
-      </c>
-      <c r="CPW2" t="inlineStr">
+        <v>1944.27</v>
+      </c>
+      <c r="CPW2" t="n">
+        <v>1930.74</v>
+      </c>
+      <c r="CPX2" t="inlineStr">
         <is>
           <t>TOPIX</t>
         </is>
       </c>
-      <c r="CPX2" t="inlineStr">
+      <c r="CPY2" t="inlineStr">
         <is>
           <t>TOPIX Index, Close</t>
         </is>
       </c>
-      <c r="CPY2" t="inlineStr">
+      <c r="CPZ2" t="inlineStr">
         <is>
           <t>Index: 1968.01.04=100</t>
         </is>

--- a/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
+++ b/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CPZ2"/>
+  <dimension ref="A1:CQB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12704,15 +12704,25 @@
       </c>
       <c r="CPX1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CPY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CPZ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CPY1" s="1" t="inlineStr">
+      <c r="CQA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CPZ1" s="1" t="inlineStr">
+      <c r="CQB1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20114,19 +20124,25 @@
         <v>1944.27</v>
       </c>
       <c r="CPW2" t="n">
-        <v>1930.74</v>
-      </c>
-      <c r="CPX2" t="inlineStr">
+        <v>1896.79</v>
+      </c>
+      <c r="CPX2" t="n">
+        <v>1896.31</v>
+      </c>
+      <c r="CPY2" t="n">
+        <v>1875.15</v>
+      </c>
+      <c r="CPZ2" t="inlineStr">
         <is>
           <t>TOPIX</t>
         </is>
       </c>
-      <c r="CPY2" t="inlineStr">
+      <c r="CQA2" t="inlineStr">
         <is>
           <t>TOPIX Index, Close</t>
         </is>
       </c>
-      <c r="CPZ2" t="inlineStr">
+      <c r="CQB2" t="inlineStr">
         <is>
           <t>Index: 1968.01.04=100</t>
         </is>
